--- a/data/raw/건물토지매매.xlsx
+++ b/data/raw/건물토지매매.xlsx
@@ -10695,7 +10695,7 @@
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="Q107" t="inlineStr">
@@ -10781,7 +10781,7 @@
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="Q108" t="inlineStr">

--- a/data/raw/건물토지매매.xlsx
+++ b/data/raw/건물토지매매.xlsx
@@ -11344,8 +11344,16 @@
           <t>522.00</t>
         </is>
       </c>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
       <c r="N115" t="inlineStr">
         <is>
           <t>190,000</t>
@@ -11366,10 +11374,14 @@
           <t>4.90%</t>
         </is>
       </c>
-      <c r="R115" t="inlineStr"/>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>5.33%</t>
+        </is>
+      </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>1층 도담골</t>
+          <t>1층 도담골3000/200 2층 미용실, 3층 왁싱샵, 4층 파티룸 월세120을 토대로 예상수익률계산했음</t>
         </is>
       </c>
       <c r="T115" t="inlineStr">
@@ -12428,7 +12440,7 @@
       </c>
       <c r="P128" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="Q128" t="inlineStr">
@@ -13158,7 +13170,7 @@
       </c>
       <c r="P137" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="Q137" t="inlineStr">

--- a/data/raw/건물토지매매.xlsx
+++ b/data/raw/건물토지매매.xlsx
@@ -11351,7 +11351,7 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>710</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
@@ -11376,7 +11376,7 @@
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>5.33%</t>
+          <t>4.73%</t>
         </is>
       </c>
       <c r="S115" t="inlineStr">
@@ -13120,12 +13120,12 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
           <t>4</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">

--- a/data/raw/건물토지매매.xlsx
+++ b/data/raw/건물토지매매.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X153"/>
+  <dimension ref="A1:X154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -3093,7 +3093,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
@@ -3277,7 +3277,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
@@ -3453,7 +3453,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -3637,7 +3637,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -3727,7 +3727,7 @@
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
@@ -5659,7 +5659,7 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
@@ -6077,7 +6077,7 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
@@ -6343,7 +6343,7 @@
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
@@ -6967,7 +6967,7 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
@@ -7413,7 +7413,7 @@
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
@@ -7509,7 +7509,7 @@
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
@@ -8099,7 +8099,7 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
@@ -8377,7 +8377,7 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
@@ -8796,7 +8796,7 @@
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
@@ -9186,7 +9186,7 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
@@ -9462,7 +9462,7 @@
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
@@ -9560,7 +9560,7 @@
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
@@ -10695,7 +10695,7 @@
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="Q107" t="inlineStr">
@@ -10781,7 +10781,7 @@
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="Q108" t="inlineStr">
@@ -10871,7 +10871,7 @@
       </c>
       <c r="P109" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="Q109" t="inlineStr">
@@ -11346,22 +11346,22 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>10000</t>
+          <t>9000</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>710</t>
+          <t>675</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>190,000</t>
+          <t>180,000</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>7,033.59</t>
+          <t>6,663.40</t>
         </is>
       </c>
       <c r="P115" t="inlineStr">
@@ -11376,7 +11376,7 @@
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>4.73%</t>
+          <t>4.74%</t>
         </is>
       </c>
       <c r="S115" t="inlineStr">
@@ -11577,11 +11577,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>ㅁ</t>
-        </is>
-      </c>
+      <c r="A118" t="inlineStr"/>
       <c r="B118" t="inlineStr">
         <is>
           <t>250116</t>
@@ -11655,7 +11651,11 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr"/>
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>ㅁ</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>250117</t>
@@ -12287,11 +12287,7 @@
       <c r="X126" t="inlineStr"/>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>ㅁ</t>
-        </is>
-      </c>
+      <c r="A127" t="inlineStr"/>
       <c r="B127" t="inlineStr">
         <is>
           <t>250207</t>
@@ -12383,7 +12379,11 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr"/>
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>ㅁ</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>250208</t>
@@ -12440,7 +12440,7 @@
       </c>
       <c r="P128" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="Q128" t="inlineStr">
@@ -12790,7 +12790,7 @@
       </c>
       <c r="P133" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="Q133" t="inlineStr">
@@ -13170,7 +13170,7 @@
       </c>
       <c r="P137" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="Q137" t="inlineStr">
@@ -14002,7 +14002,11 @@
         </is>
       </c>
       <c r="H147" t="inlineStr"/>
-      <c r="I147" t="inlineStr"/>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
@@ -14072,7 +14076,11 @@
         </is>
       </c>
       <c r="H148" t="inlineStr"/>
-      <c r="I148" t="inlineStr"/>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
@@ -14131,15 +14139,19 @@
     </row>
     <row r="149">
       <c r="A149" t="inlineStr"/>
-      <c r="B149" t="inlineStr"/>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>250811</t>
+        </is>
+      </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>청천동</t>
+          <t>부평동</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>9-1</t>
+          <t>915-1</t>
         </is>
       </c>
       <c r="E149" t="inlineStr"/>
@@ -14153,39 +14165,76 @@
           <t>4</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr"/>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr"/>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>456.70</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>273.00</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>1,321.00</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>11000</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>1057</t>
+        </is>
+      </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>230,000</t>
+          <t>450,000</t>
         </is>
       </c>
       <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="Q149" t="inlineStr">
-        <is>
-          <t>3.50%</t>
-        </is>
-      </c>
-      <c r="R149" t="inlineStr"/>
+      <c r="P149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr"/>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t>2.89%</t>
+        </is>
+      </c>
       <c r="S149" t="inlineStr">
         <is>
-          <t>지하50, 1층 커피숍3000/250, 2층1000/150, 3층1000/80, 4층 주택 전세1억 원룸2개 월세50가능</t>
-        </is>
-      </c>
-      <c r="T149" t="inlineStr"/>
-      <c r="U149" t="inlineStr"/>
-      <c r="V149" t="inlineStr"/>
+          <t>굴포천역아래쪽 대로변 1층 장터병천순대건물
+지하층, 1층 임대완료, 2-4층공실, 관리인이 추후 공실임대정보 알려주기로함, 매매되면 관리인이 (중개보수?)(입금가?)40% 달라고함</t>
+        </is>
+      </c>
+      <c r="T149" t="inlineStr">
+        <is>
+          <t>정</t>
+        </is>
+      </c>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>생</t>
+        </is>
+      </c>
+      <c r="V149" t="inlineStr">
+        <is>
+          <t>관리인</t>
+        </is>
+      </c>
       <c r="W149" t="inlineStr"/>
-      <c r="X149" t="inlineStr"/>
+      <c r="X149" t="inlineStr">
+        <is>
+          <t>010-5252-4488</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr"/>
@@ -14250,16 +14299,20 @@
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="inlineStr">
         <is>
-          <t>가좌동</t>
+          <t>청천동</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>212-4</t>
+          <t>9-1</t>
         </is>
       </c>
       <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="G151" t="inlineStr">
         <is>
           <t>4</t>
@@ -14273,7 +14326,7 @@
       <c r="M151" t="inlineStr"/>
       <c r="N151" t="inlineStr">
         <is>
-          <t>140,000</t>
+          <t>230,000</t>
         </is>
       </c>
       <c r="O151" t="inlineStr"/>
@@ -14290,86 +14343,90 @@
       <c r="R151" t="inlineStr"/>
       <c r="S151" t="inlineStr">
         <is>
-          <t>130000까지</t>
-        </is>
-      </c>
-      <c r="T151" t="inlineStr">
-        <is>
-          <t>오</t>
-        </is>
-      </c>
-      <c r="U151" t="inlineStr">
-        <is>
-          <t>생</t>
-        </is>
-      </c>
+          <t>지하50, 1층 커피숍3000/250, 2층1000/150, 3층1000/80, 4층 주택 전세1억 원룸2개 월세50가능</t>
+        </is>
+      </c>
+      <c r="T151" t="inlineStr"/>
+      <c r="U151" t="inlineStr"/>
       <c r="V151" t="inlineStr"/>
-      <c r="W151" t="inlineStr">
-        <is>
-          <t>임대인</t>
-        </is>
-      </c>
-      <c r="X151" t="inlineStr">
-        <is>
-          <t>010-4036-8150</t>
-        </is>
-      </c>
+      <c r="W151" t="inlineStr"/>
+      <c r="X151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr"/>
       <c r="B152" t="inlineStr"/>
-      <c r="C152" t="inlineStr"/>
-      <c r="D152" t="inlineStr"/>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>가좌동</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>212-4</t>
+        </is>
+      </c>
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>6000</t>
-        </is>
-      </c>
-      <c r="M152" t="inlineStr">
-        <is>
-          <t>450</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
       <c r="N152" t="inlineStr">
         <is>
           <t>140,000</t>
         </is>
       </c>
       <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr">
-        <is>
-          <t>4.03%</t>
-        </is>
-      </c>
-      <c r="S152" t="inlineStr"/>
-      <c r="T152" t="inlineStr"/>
-      <c r="U152" t="inlineStr"/>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>3.50%</t>
+        </is>
+      </c>
+      <c r="R152" t="inlineStr"/>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>130000까지</t>
+        </is>
+      </c>
+      <c r="T152" t="inlineStr">
+        <is>
+          <t>오</t>
+        </is>
+      </c>
+      <c r="U152" t="inlineStr">
+        <is>
+          <t>생</t>
+        </is>
+      </c>
       <c r="V152" t="inlineStr"/>
-      <c r="W152" t="inlineStr"/>
-      <c r="X152" t="inlineStr"/>
+      <c r="W152" t="inlineStr">
+        <is>
+          <t>임대인</t>
+        </is>
+      </c>
+      <c r="X152" t="inlineStr">
+        <is>
+          <t>010-4036-8150</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr"/>
       <c r="B153" t="inlineStr"/>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>부평동</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>633-8</t>
-        </is>
-      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr"/>
@@ -14377,35 +14434,85 @@
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>130,000</t>
+          <t>140,000</t>
         </is>
       </c>
       <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q153" t="inlineStr">
-        <is>
-          <t>3.50%</t>
-        </is>
-      </c>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="inlineStr">
-        <is>
-          <t>미래부동산 매물 손님 연력 해달라고 함</t>
-        </is>
-      </c>
+      <c r="P153" t="inlineStr"/>
+      <c r="Q153" t="inlineStr"/>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>4.03%</t>
+        </is>
+      </c>
+      <c r="S153" t="inlineStr"/>
       <c r="T153" t="inlineStr"/>
       <c r="U153" t="inlineStr"/>
       <c r="V153" t="inlineStr"/>
       <c r="W153" t="inlineStr"/>
-      <c r="X153" t="inlineStr">
+      <c r="X153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr"/>
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>부평동</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>633-8</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>130,000</t>
+        </is>
+      </c>
+      <c r="O154" t="inlineStr"/>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>3.50%</t>
+        </is>
+      </c>
+      <c r="R154" t="inlineStr"/>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>미래부동산 매물 손님 연력 해달라고 함</t>
+        </is>
+      </c>
+      <c r="T154" t="inlineStr"/>
+      <c r="U154" t="inlineStr"/>
+      <c r="V154" t="inlineStr"/>
+      <c r="W154" t="inlineStr"/>
+      <c r="X154" t="inlineStr">
         <is>
           <t>010-2355-6511</t>
         </is>

--- a/data/raw/건물토지매매.xlsx
+++ b/data/raw/건물토지매매.xlsx
@@ -4629,7 +4629,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1660-10</t>
+          <t>10-1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">

--- a/data/raw/건물토지매매.xlsx
+++ b/data/raw/건물토지매매.xlsx
@@ -626,7 +626,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>3.00%</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -4629,7 +4629,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>10-1</t>
+          <t>1660-10</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">

--- a/data/raw/건물토지매매.xlsx
+++ b/data/raw/건물토지매매.xlsx
@@ -626,7 +626,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>3.00%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
